--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3963.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3963.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.202284466918605</v>
+        <v>0.7947762012481689</v>
       </c>
       <c r="B1">
-        <v>2.265126363306802</v>
+        <v>2.027393817901611</v>
       </c>
       <c r="C1">
-        <v>6.032721546299491</v>
+        <v>2.668511867523193</v>
       </c>
       <c r="D1">
-        <v>3.463769674589784</v>
+        <v>2.994131088256836</v>
       </c>
       <c r="E1">
-        <v>1.411370242206767</v>
+        <v>0.8605120778083801</v>
       </c>
     </row>
   </sheetData>
